--- a/Electronic/Partslist.xlsx
+++ b/Electronic/Partslist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Downloads\Studentproject\SpinLauncher\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB430D-3FC9-49A6-A16E-01F99162E2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7FDA-0585-4DDF-8708-C6369C984758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0365CDB0-0C40-4790-B9D4-A5FA01BE48F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>KY-003</t>
+  </si>
+  <si>
+    <t>MG996R</t>
+  </si>
+  <si>
+    <t>1000µF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>22nF</t>
   </si>
 </sst>
 </file>
@@ -720,10 +732,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -802,7 +818,9 @@
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
@@ -814,7 +832,9 @@
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="13">
         <v>1</v>
       </c>
@@ -826,7 +846,9 @@
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
@@ -838,7 +860,9 @@
       <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="13">
         <v>1</v>
       </c>
@@ -850,7 +874,9 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
@@ -862,7 +888,9 @@
       <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="16">
         <v>1</v>
       </c>
